--- a/instructions_data_download/Hyperfarm_system_details_20230928.xlsx
+++ b/instructions_data_download/Hyperfarm_system_details_20230928.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34620\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34620\Dropbox\AU\GIT_REPOS\hyperfarm\instructions_data_download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF02811-4D22-4AD0-B8F3-97B62EE0F626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E4C873-72BC-4660-9407-EBCE8F1A1D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weather Stations" sheetId="1" r:id="rId1"/>
@@ -692,6 +692,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,9 +710,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,33 +1399,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.90625" customWidth="1"/>
-    <col min="2" max="2" width="52.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1438,14 +1438,14 @@
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
@@ -1458,11 +1458,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>42</v>
       </c>
@@ -1472,11 +1472,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1489,14 +1489,14 @@
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>76</v>
       </c>
       <c r="S5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1509,11 +1509,11 @@
       <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>89</v>
       </c>
@@ -1523,11 +1523,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -1537,11 +1537,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1551,29 +1551,29 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D11" t="s">
@@ -1583,7 +1583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>49</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1669,17 +1669,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>1</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>1</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>1</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>1</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>1</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>1</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>2</v>
       </c>
@@ -1749,51 +1749,51 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>2</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>2</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>3</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>3</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>3</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>3</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>3</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>4</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>4</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>4</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>4</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>4</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>4</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>5</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>5</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>5</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>5</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>5</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>5</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>6</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>6</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>6</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>6</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>6</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>6</v>
       </c>
@@ -2020,19 +2020,19 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2090,25 +2090,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADE7DA4-663D-44D8-A6AA-C9B8D3F09841}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.36328125" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -2196,12 +2196,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>100/0.44</f>
+        <v>227.27272727272728</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>1053*0.88</f>
+        <v>926.64</v>
       </c>
     </row>
   </sheetData>
